--- a/html/Specs.xlsx
+++ b/html/Specs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Decision Solutions\Batch Input Reader\Using i-frames\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FIS\CCC\Batch Input Reader\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2007R" sheetId="3" r:id="rId3"/>
     <sheet name="2009R" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6464,8 +6464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,19 +8938,19 @@
       </c>
       <c r="D92">
         <f t="shared" si="11"/>
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="E92">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;th&gt;Acquirer Identifier &lt;br&gt; (1180 - 1185)&lt;/th&gt;</v>
+        <v>&lt;th&gt;Acquirer Identifier &lt;br&gt; (1180 - 1187)&lt;/th&gt;</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;td&gt;&lt;input type="text" maxlength="6" id="c91" onkeyup="auto_tab(this)"&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;input type="text" maxlength="8" id="c91" onkeyup="auto_tab(this)"&gt;&lt;/td&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -8961,7 +8961,7 @@
         <v>78</v>
       </c>
       <c r="C93">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D93">
         <f t="shared" si="11"/>
@@ -8969,15 +8969,15 @@
       </c>
       <c r="E93">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;th&gt;Date Account Sold &lt;br&gt; (1186 - 1195)&lt;/th&gt;</v>
+        <v>&lt;th&gt;Date Account Sold &lt;br&gt; (1188 - 1195)&lt;/th&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;td&gt;&lt;input type="text" maxlength="10" id="c92" onkeyup="auto_tab(this)"&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;input type="text" maxlength="8" id="c92" onkeyup="auto_tab(this)"&gt;&lt;/td&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
